--- a/Passageiros pagos/igu_nac.xlsx
+++ b/Passageiros pagos/igu_nac.xlsx
@@ -1,32 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADCDD0D-0858-4744-A9C7-20360E455ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ano</t>
   </si>
   <si>
     <t>Passageiros</t>
   </si>
+  <si>
+    <t>Passageiros_freq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +58,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,20 +104,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -135,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,9 +209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,22 +454,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -401,8 +487,11 @@
       <c r="C2">
         <v>456034</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -412,8 +501,12 @@
       <c r="C3">
         <v>411660</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <f>C3/C2 -1</f>
+        <v>-9.7304148374901867E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -423,8 +516,12 @@
       <c r="C4">
         <v>424268</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
+        <v>3.0627216635087162E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -434,8 +531,12 @@
       <c r="C5">
         <v>455380</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.3331007759246614E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -445,8 +546,12 @@
       <c r="C6">
         <v>570896</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25366946286617775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -456,8 +561,12 @@
       <c r="C7">
         <v>791705</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3867762254421121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -467,8 +576,12 @@
       <c r="C8">
         <v>716018</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.5600002526193495E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -478,8 +591,12 @@
       <c r="C9">
         <v>707561</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.1811155585474076E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -489,8 +606,12 @@
       <c r="C10">
         <v>734807</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8506927317927264E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -500,8 +621,12 @@
       <c r="C11">
         <v>800831</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>8.9852165262443107E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -511,8 +636,12 @@
       <c r="C12">
         <v>1127457</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.40785883663344702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -522,8 +651,12 @@
       <c r="C13">
         <v>1623226</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.43972320008656651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -533,8 +666,12 @@
       <c r="C14">
         <v>1647065</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4686186643141586E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -544,8 +681,12 @@
       <c r="C15">
         <v>1570912</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>-4.6235576616587726E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -555,8 +696,12 @@
       <c r="C16">
         <v>1736920</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10567619319223476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -566,8 +711,12 @@
       <c r="C17">
         <v>1937928</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11572668862123758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -577,8 +726,12 @@
       <c r="C18">
         <v>1731066</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.10674390379828358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -588,8 +741,12 @@
       <c r="C19">
         <v>2045897</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18187117071215075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -599,8 +756,12 @@
       <c r="C20">
         <v>2170983</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1139930309296986E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -610,8 +771,12 @@
       <c r="C21">
         <v>2217826</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1576861725771224E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -620,6 +785,10 @@
       </c>
       <c r="C22">
         <v>798102</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.64014219330100741</v>
       </c>
     </row>
   </sheetData>

--- a/Passageiros pagos/igu_nac.xlsx
+++ b/Passageiros pagos/igu_nac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADCDD0D-0858-4744-A9C7-20360E455ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DC3DF9-DDEA-4BDA-842C-35309DE40350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A21" sqref="A21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>456034</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>-9.7304148374901867E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -502,8 +502,7 @@
         <v>411660</v>
       </c>
       <c r="D3" s="3">
-        <f>C3/C2 -1</f>
-        <v>-9.7304148374901867E-2</v>
+        <v>3.0627216635087162E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,8 +516,7 @@
         <v>424268</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D22" si="0">C4/C3 -1</f>
-        <v>3.0627216635087162E-2</v>
+        <v>7.3331007759246614E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,8 +530,7 @@
         <v>455380</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>7.3331007759246614E-2</v>
+        <v>0.25366946286617775</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -547,8 +544,7 @@
         <v>570896</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.25366946286617775</v>
+        <v>0.3867762254421121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -562,8 +558,7 @@
         <v>791705</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.3867762254421121</v>
+        <v>-9.5600002526193495E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -577,8 +572,7 @@
         <v>716018</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>-9.5600002526193495E-2</v>
+        <v>-1.1811155585474076E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -592,8 +586,7 @@
         <v>707561</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>-1.1811155585474076E-2</v>
+        <v>3.8506927317927264E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,8 +600,7 @@
         <v>734807</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8506927317927264E-2</v>
+        <v>8.9852165262443107E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -622,8 +614,7 @@
         <v>800831</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>8.9852165262443107E-2</v>
+        <v>0.40785883663344702</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -637,8 +628,7 @@
         <v>1127457</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.40785883663344702</v>
+        <v>0.43972320008656651</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,8 +642,7 @@
         <v>1623226</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43972320008656651</v>
+        <v>1.4686186643141586E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,8 +656,7 @@
         <v>1647065</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.4686186643141586E-2</v>
+        <v>-4.6235576616587726E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,8 +670,7 @@
         <v>1570912</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>-4.6235576616587726E-2</v>
+        <v>0.10567619319223476</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -697,8 +684,7 @@
         <v>1736920</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10567619319223476</v>
+        <v>0.11572668862123758</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,8 +698,7 @@
         <v>1937928</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11572668862123758</v>
+        <v>-0.10674390379828358</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -727,8 +712,7 @@
         <v>1731066</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.10674390379828358</v>
+        <v>0.18187117071215075</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -742,8 +726,7 @@
         <v>2045897</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.18187117071215075</v>
+        <v>6.1139930309296986E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,39 +740,16 @@
         <v>2170983</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1139930309296986E-2</v>
+        <v>2.1576861725771224E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>2019</v>
-      </c>
-      <c r="C21">
-        <v>2217826</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>2.1576861725771224E-2</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2020</v>
-      </c>
-      <c r="C22">
-        <v>798102</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.64014219330100741</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/igu_nac.xlsx
+++ b/Passageiros pagos/igu_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DC3DF9-DDEA-4BDA-842C-35309DE40350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCA724-3BDC-4AA0-85BB-E4A34A783EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,15 +740,34 @@
         <v>2170983</v>
       </c>
       <c r="D20" s="3">
-        <v>2.1576861725771224E-2</v>
+        <v>2.1576861725771199E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2019</v>
+      </c>
+      <c r="C21">
+        <v>2217826</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C22/C21 -1</f>
+        <v>-0.64014219330100741</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22">
+        <v>798102</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
   </sheetData>

--- a/Passageiros pagos/igu_nac.xlsx
+++ b/Passageiros pagos/igu_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDCA724-3BDC-4AA0-85BB-E4A34A783EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF6E14-9D5F-4BBF-BA82-AC2BA23516EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="11400" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Passageiros_freq</t>
+  </si>
+  <si>
+    <t>numero_de_passageiros</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,19 +106,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,18 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +493,11 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -485,290 +505,395 @@
         <v>2000</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C3</f>
+        <v>-7.8562599699018021E-3</v>
+      </c>
+      <c r="E2" s="5">
         <v>456034</v>
       </c>
-      <c r="D2" s="2">
-        <v>-9.7304148374901867E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
+        <f>(LN(E3)/LN(E2)) - 1</f>
+        <v>-7.8562599699018021E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D22" si="0">C4</f>
+        <v>2.3335144390168594E-3</v>
+      </c>
+      <c r="E3" s="5">
         <v>411660</v>
       </c>
-      <c r="D3" s="3">
-        <v>3.0627216635087162E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:C22" si="1">(LN(E4)/LN(E3)) - 1</f>
+        <v>2.3335144390168594E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4612012290780054E-3</v>
+      </c>
+      <c r="E4" s="5">
         <v>424268</v>
       </c>
-      <c r="D4" s="3">
-        <v>7.3331007759246614E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4612012290780054E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7351813114361958E-2</v>
+      </c>
+      <c r="E5" s="5">
         <v>455380</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.25366946286617775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7351813114361958E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4668632240613997E-2</v>
+      </c>
+      <c r="E6" s="5">
         <v>570896</v>
       </c>
-      <c r="D6" s="3">
-        <v>0.3867762254421121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4668632240613997E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.3983179752804551E-3</v>
+      </c>
+      <c r="E7" s="5">
         <v>791705</v>
       </c>
-      <c r="D7" s="3">
-        <v>-9.5600002526193495E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
         <v>2006</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.3983179752804551E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.8131855983053509E-4</v>
+      </c>
+      <c r="E8" s="5">
         <v>716018</v>
       </c>
-      <c r="D8" s="3">
-        <v>-1.1811155585474076E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2007</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
+        <f t="shared" si="1"/>
+        <v>-8.8131855983053509E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8051384878373664E-3</v>
+      </c>
+      <c r="E9" s="5">
         <v>707561</v>
       </c>
-      <c r="D9" s="3">
-        <v>3.8506927317927264E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2008</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8051384878373664E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.370011513893159E-3</v>
+      </c>
+      <c r="E10" s="5">
         <v>734807</v>
       </c>
-      <c r="D10" s="3">
-        <v>8.9852165262443107E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
         <v>2009</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
+        <f t="shared" si="1"/>
+        <v>6.370011513893159E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5164407973058411E-2</v>
+      </c>
+      <c r="E11" s="5">
         <v>800831</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.40785883663344702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
         <v>2010</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5164407973058411E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6152740929189955E-2</v>
+      </c>
+      <c r="E12" s="5">
         <v>1127457</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.43972320008656651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2011</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6152740929189955E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0195429599615391E-3</v>
+      </c>
+      <c r="E13" s="5">
         <v>1623226</v>
       </c>
-      <c r="D13" s="3">
-        <v>1.4686186643141586E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
         <v>2012</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0195429599615391E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.3070352147345217E-3</v>
+      </c>
+      <c r="E14" s="5">
         <v>1647065</v>
       </c>
-      <c r="D14" s="3">
-        <v>-4.6235576616587726E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
         <v>2013</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
+        <f t="shared" si="1"/>
+        <v>-3.3070352147345217E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0411377432466615E-3</v>
+      </c>
+      <c r="E15" s="5">
         <v>1570912</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.10567619319223476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
         <v>2014</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0411377432466615E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>7.6217147240098537E-3</v>
+      </c>
+      <c r="E16" s="5">
         <v>1736920</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.11572668862123758</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6217147240098537E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.7972607823607598E-3</v>
+      </c>
+      <c r="E17" s="5">
         <v>1937928</v>
       </c>
-      <c r="D17" s="3">
-        <v>-0.10674390379828358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>-7.7972607823607598E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1632973815282721E-2</v>
+      </c>
+      <c r="E18" s="5">
         <v>1731066</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.18187117071215075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1632973815282721E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0838427933005406E-3</v>
+      </c>
+      <c r="E19" s="5">
         <v>2045897</v>
       </c>
-      <c r="D19" s="3">
-        <v>6.1139930309296986E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
         <v>2018</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0838427933005406E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4630819735306222E-3</v>
+      </c>
+      <c r="E20" s="5">
         <v>2170983</v>
       </c>
-      <c r="D20" s="3">
-        <v>2.1576861725771199E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4630819735306222E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.9945500231777591E-2</v>
+      </c>
+      <c r="E21" s="5">
         <v>2217826</v>
       </c>
-      <c r="D21" s="3">
-        <f>C22/C21 -1</f>
-        <v>-0.64014219330100741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
         <v>2020</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
+        <f t="shared" si="1"/>
+        <v>-6.9945500231777591E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>798102</v>
       </c>
-      <c r="D22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Passageiros pagos/igu_nac.xlsx
+++ b/Passageiros pagos/igu_nac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Documentos\INSPER_JR\Decolagem_I\Regressao_Decolagem\Passageiros pagos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF6E14-9D5F-4BBF-BA82-AC2BA23516EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E1D3FF-C84A-475D-A037-18E9DF1C5C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,13 @@
     <t>Ano</t>
   </si>
   <si>
-    <t>Passageiros</t>
+    <t>numero_de_passageiros</t>
   </si>
   <si>
-    <t>Passageiros_freq</t>
+    <t>Passageiros_frequencia</t>
   </si>
   <si>
-    <t>numero_de_passageiros</t>
+    <t>Passageiros_freq_defasagem</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
